--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Google Search Term</t>
   </si>
@@ -52,16 +52,19 @@
     <t>https://ja.wikipedia.org</t>
   </si>
   <si>
+    <t>https://bananarepublic.gap.co.jp</t>
+  </si>
+  <si>
+    <t>Link 4</t>
+  </si>
+  <si>
+    <t>https://wired.jp</t>
+  </si>
+  <si>
     <t>https://ejje.weblio.jp</t>
   </si>
   <si>
-    <t>Link 4</t>
-  </si>
-  <si>
-    <t>https://wired.jp</t>
-  </si>
-  <si>
-    <t>https://bananarepublic.gap.co.jp</t>
+    <t>https://www.fashion-press.net</t>
   </si>
   <si>
     <t>Link 5</t>
@@ -70,28 +73,31 @@
     <t>https://www.fujisan.co.jp</t>
   </si>
   <si>
+    <t>https://myrepublic.jp</t>
+  </si>
+  <si>
     <t>Link 6</t>
   </si>
   <si>
-    <t>https://www.fanuc.co.jp</t>
+    <t>https://tamashii.jp</t>
+  </si>
+  <si>
+    <t>https://presidentstore.jp</t>
+  </si>
+  <si>
+    <t>Link 7</t>
   </si>
   <si>
     <t>https://eow.alc.co.jp</t>
   </si>
   <si>
-    <t>Link 7</t>
-  </si>
-  <si>
-    <t>https://presidentstore.jp</t>
-  </si>
-  <si>
-    <t>https://myrepublic.jp</t>
+    <t>https://zozo.jp</t>
   </si>
   <si>
     <t>Link 8</t>
   </si>
   <si>
-    <t>https://tamashii.jp</t>
+    <t>https://gashapon.jp</t>
   </si>
   <si>
     <t>Link 9</t>
@@ -510,82 +516,82 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="C11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
